--- a/Tablet/Posts/Action 11/Results.xlsx
+++ b/Tablet/Posts/Action 11/Results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Instagram\Tablet\Publicaciones\Video-15segs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALARCOS\Desktop\InstagramEnergyConsumption\Tablet\Posts\Action 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DEAD82-2E94-47CB-9D41-A3BDA212CF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B98D9-2689-41CC-9871-9DE94B2BEDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabla de pruebas" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabla total" sheetId="2" r:id="rId2"/>
+    <sheet name="Measurements table" sheetId="1" r:id="rId1"/>
+    <sheet name="Total table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -254,9 +254,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +294,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +400,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +542,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -552,18 +552,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +575,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -581,7 +583,7 @@
         <v>53981</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -589,7 +591,7 @@
         <v>53.981000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -609,7 +611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -629,7 +631,7 @@
         <v>0.92467999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -649,7 +651,7 @@
         <v>3.3981400000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -669,7 +671,7 @@
         <v>2.4734600000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -689,7 +691,7 @@
         <v>1.6696672222222222</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -709,7 +711,7 @@
         <v>1.0582850000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -729,7 +731,7 @@
         <v>2.1057774999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -749,7 +751,7 @@
         <v>1.0474924999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -769,7 +771,7 @@
         <v>0.70128885265995011</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -789,7 +791,7 @@
         <v>0.49180605486510914</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -809,7 +811,7 @@
         <v>1.4895999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -829,7 +831,7 @@
         <v>1.5887447674418604</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -849,7 +851,7 @@
         <v>1.8963100000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -869,7 +871,7 @@
         <v>1.5398794837161274</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -889,7 +891,7 @@
         <v>0.46409999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -909,7 +911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -919,7 +921,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -927,7 +929,7 @@
         <v>56504</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +937,7 @@
         <v>56.503999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -955,7 +957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -975,7 +977,7 @@
         <v>0.95848</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
@@ -995,7 +997,7 @@
         <v>4.0323900000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>3.0739100000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1037,7 @@
         <v>2.0088653982300881</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>1.1499000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>2.5209549999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
@@ -1095,7 +1097,7 @@
         <v>1.3710549999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>0.8713823542315593</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>0.75930720726613465</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>1.8947400000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1177,7 @@
         <v>1.9327790109890111</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>2.2259799999999994</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>1.8277606309395675</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1235,7 +1237,7 @@
         <v>0.68646000000000007</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1257,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1267,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>54486</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>54.485999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1323,7 @@
         <v>0.97633000000000003</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>3.9353600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>11</v>
       </c>
@@ -1361,7 +1363,7 @@
         <v>2.9590300000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>12</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>2.0906977064220182</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>1.5360199999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>2.5152200000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>0.97920000000000029</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>0.80257610807397717</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>0.64412840925117221</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>1.9397599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>2.0350862068965516</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>2.2307600000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>1.9430028581892782</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>22</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>0.50861000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>23</v>
       </c>
@@ -1601,7 +1603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -1611,7 +1613,7 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>1</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>54994</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>54.994</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>0.91278000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>10</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>4.00366</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>11</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>3.0908799999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>12</v>
       </c>
@@ -1727,7 +1729,7 @@
         <v>2.033461</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>1.4032149999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>14</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>2.4306774999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>1.0274624999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1809,7 @@
         <v>0.82373322793349968</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -1827,7 +1829,7 @@
         <v>0.67853643080174286</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>18</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>1.8742749999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -1867,7 +1869,7 @@
         <v>1.9622807954545456</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>2.1869399999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>1.8743487783236443</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>22</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>0.52106499999999989</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>23</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>27</v>
       </c>
@@ -1957,7 +1959,7 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>58018</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>58.018000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>0.89556999999999998</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2035,7 @@
         <v>3.7254100000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>11</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>2.8298399999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>12</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>1.7669969827586207</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>13</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>1.114055</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>14</v>
       </c>
@@ -2113,7 +2115,7 @@
         <v>2.4624925000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>15</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>1.3484375000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2155,7 @@
         <v>0.76965243188046428</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>0.59236486589951276</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>18</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>1.5089549999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>19</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>1.6908608510638299</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
       </c>
@@ -2233,7 +2235,7 @@
         <v>1.9802</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>1.6149407938807798</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>22</v>
       </c>
@@ -2273,7 +2275,7 @@
         <v>0.5457749999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>23</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>28</v>
       </c>
@@ -2303,7 +2305,7 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -2311,7 +2313,7 @@
         <v>56004</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>56.003999999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>0.89995000000000003</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>3.4589300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>2.55898</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>12</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>1.6786954464285715</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
@@ -2439,7 +2441,7 @@
         <v>1.05619</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>14</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>1.9955825000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>15</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>0.9393925000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>16</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>0.74422163244425843</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>17</v>
       </c>
@@ -2519,7 +2521,7 @@
         <v>0.55386583819799684</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>18</v>
       </c>
@@ -2539,7 +2541,7 @@
         <v>1.504405</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>19</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>1.5829770000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>20</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>1.9561550000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>21</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>1.5379230532556392</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>22</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>0.44888000000000006</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>23</v>
       </c>
@@ -2639,7 +2641,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>29</v>
       </c>
@@ -2649,7 +2651,7 @@
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>1</v>
       </c>
@@ -2657,7 +2659,7 @@
         <v>51458</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>2</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>51.457999999999998</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>9</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>0.92562</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>4.1310700000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2747,7 @@
         <v>3.2054500000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>12</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>2.0894385436893206</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>13</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>1.3801300000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>14</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>2.55586</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>15</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>1.1757299999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>0.87713041460118502</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>17</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>0.7693577642184467</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>18</v>
       </c>
@@ -2885,7 +2887,7 @@
         <v>1.9584999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>19</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>2.0067018072289158</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>20</v>
       </c>
@@ -2925,7 +2927,7 @@
         <v>2.2940100000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>21</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>1.9140036806173153</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>22</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>0.59454000000000029</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>23</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>30</v>
       </c>
@@ -2995,7 +2997,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>52465</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>2</v>
       </c>
@@ -3011,7 +3013,7 @@
         <v>52.465000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -3031,7 +3033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>0.90297000000000005</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>10</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>4.7081799999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>11</v>
       </c>
@@ -3091,7 +3093,7 @@
         <v>3.8052099999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>12</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>2.0704709523809526</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>13</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>1.37121</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3153,7 @@
         <v>2.5089000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>15</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>1.1376900000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>0.89363420853957998</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>17</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>0.79858209867216157</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>18</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>1.99566</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>19</v>
       </c>
@@ -3251,7 +3253,7 @@
         <v>1.9914577647058824</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>20</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>2.2511100000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>21</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>1.8836387323485961</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>22</v>
       </c>
@@ -3311,7 +3313,7 @@
         <v>0.55980999999999992</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>23</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +3343,7 @@
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>1</v>
       </c>
@@ -3349,7 +3351,7 @@
         <v>53996</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>2</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>53.996000000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>9</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>0.92217000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>10</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>3.8174100000000002</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>11</v>
       </c>
@@ -3437,7 +3439,7 @@
         <v>2.8952400000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>12</v>
       </c>
@@ -3457,7 +3459,7 @@
         <v>1.9025741666666665</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>13</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>1.1524650000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>14</v>
       </c>
@@ -3497,7 +3499,7 @@
         <v>2.4308299999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>15</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>1.2783649999999998</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>16</v>
       </c>
@@ -3537,7 +3539,7 @@
         <v>0.86167932935062308</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>17</v>
       </c>
@@ -3557,7 +3559,7 @@
         <v>0.74249126663013965</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>18</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>1.664045</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>19</v>
       </c>
@@ -3597,7 +3599,7 @@
         <v>1.8077629069767442</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>20</v>
       </c>
@@ -3617,7 +3619,7 @@
         <v>2.1677</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>21</v>
       </c>
@@ -3637,7 +3639,7 @@
         <v>1.7234197958585169</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>22</v>
       </c>
@@ -3657,7 +3659,7 @@
         <v>0.62652000000000008</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>23</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -3687,7 +3689,7 @@
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>1</v>
       </c>
@@ -3695,7 +3697,7 @@
         <v>53991</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>2</v>
       </c>
@@ -3703,7 +3705,7 @@
         <v>53.991</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -3723,7 +3725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>9</v>
       </c>
@@ -3743,7 +3745,7 @@
         <v>0.92686999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>10</v>
       </c>
@@ -3763,7 +3765,7 @@
         <v>3.5655199999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>11</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>2.6386499999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>12</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>1.667868425925926</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>13</v>
       </c>
@@ -3823,7 +3825,7 @@
         <v>1.0570875</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>14</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>1.9759725000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>15</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>0.91888500000000017</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>16</v>
       </c>
@@ -3883,7 +3885,7 @@
         <v>0.74818655279514379</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>17</v>
       </c>
@@ -3903,7 +3905,7 @@
         <v>0.55978311778348055</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>18</v>
       </c>
@@ -3923,7 +3925,7 @@
         <v>1.4769049999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>19</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>1.5489246511627908</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +3965,7 @@
         <v>1.9994549999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>21</v>
       </c>
@@ -3983,7 +3985,7 @@
         <v>1.5296842790467515</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>22</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>0.43781499999999995</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>23</v>
       </c>
@@ -4032,26 +4034,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>0.89556999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>4.7081799999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -4134,7 +4136,7 @@
         <v>3.8126099999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -4157,7 +4159,7 @@
         <v>1.8978735844724386</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>1.22785575</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -4197,7 +4199,7 @@
         <v>2.35022675</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -4217,7 +4219,7 @@
         <v>1.122371</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>0.18395096274701314</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -4263,7 +4265,7 @@
         <v>3.383795669555302E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4286,7 +4288,7 @@
         <v>1.7306845</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>1.9025212140470553</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -4332,7 +4334,7 @@
         <v>1.8801824643221203</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -4355,7 +4357,7 @@
         <v>1.8896952424963167</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>0.134348342607292</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>103.60434961427508</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -4415,7 +4417,7 @@
         <v>96.577913651999992</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>90.049884184166672</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>113.91375523211008</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -4484,7 +4486,7 @@
         <v>9.2593321115780167</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G24">
         <f>G17-(G3*B6)</f>
         <v>54.715451985275081</v>
